--- a/docs/Management/template/招聘模板-Java技术.xlsx
+++ b/docs/Management/template/招聘模板-Java技术.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA53A56-62BF-4B7F-944D-595F2FE66355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E089DF-7565-4BA3-A95A-1DCC50214850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="版本更新" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>不同岗位，比重不同，默认是开发人员的标准</t>
+          <t>不同岗位，比重不同，默认的是开发人员的标准。技术经理需要调高管理经验比重，架构师需要调高架构设计的比重。</t>
         </r>
       </text>
     </comment>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="230">
   <si>
     <t>面试日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,14 +461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对Java语言的基本概念、语法、核心API的理解和应用能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对Java多线程编程的理解，包括线程的创建、同步、死锁等问题的处理能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对常见设计模式的理解及在实际开发中的应用能力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -883,6 +875,22 @@
   </si>
   <si>
     <t>对特定行业的了解和经验，如金融、制造(ERP，PLM，SRM)等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>├ JVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程池，线程同步，线程间通信，状态，线程安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM内存结构，垃圾回收，类加载机制，JMM，JVM参数和调优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构，IO，异常处理，API使用，算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1235,6 +1243,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1267,21 +1290,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1649,7 +1657,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -1664,14 +1672,14 @@
       <c r="A1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:7" ht="15.45" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -1756,7 +1764,7 @@
         <v>84</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="30"/>
@@ -1876,7 +1884,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1888,7 +1896,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -1911,36 +1919,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="55" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="56"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="61"/>
     </row>
     <row r="2" spans="1:22" ht="30.9" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -1956,7 +1964,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>6</v>
@@ -1980,7 +1988,7 @@
         <v>64</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>38</v>
@@ -2115,22 +2123,22 @@
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="62">
+      <c r="A5" s="51">
         <v>44853.395833333336</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="52">
         <v>5</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="52">
         <v>65</v>
       </c>
       <c r="G5" s="14" t="s">
@@ -2169,22 +2177,22 @@
       <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="62">
+      <c r="A6" s="51">
         <v>44853.416666666664</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="52">
         <v>8</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="52">
         <v>72</v>
       </c>
       <c r="G6" s="14" t="s">
@@ -2221,22 +2229,22 @@
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="62">
+      <c r="A7" s="51">
         <v>44854.416666666664</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="52">
         <v>8</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="52">
         <v>81</v>
       </c>
       <c r="G7" s="14" t="s">
@@ -2275,22 +2283,22 @@
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="62">
+      <c r="A8" s="51">
         <v>44853.4375</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="52">
         <v>10</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="52">
         <v>70</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -2327,22 +2335,22 @@
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="62">
+      <c r="A9" s="51">
         <v>44853.479166666664</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="52">
         <v>3</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="52">
         <v>73</v>
       </c>
       <c r="G9" s="14" t="s">
@@ -2369,7 +2377,7 @@
       <c r="N9" s="39"/>
       <c r="O9" s="2"/>
       <c r="P9" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="39"/>
       <c r="R9" s="39"/>
@@ -2379,22 +2387,22 @@
       <c r="V9" s="2"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="62">
+      <c r="A10" s="51">
         <v>44854.625</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="52">
         <v>2</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="52">
         <v>76</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -2421,7 +2429,7 @@
       <c r="N10" s="39"/>
       <c r="O10" s="2"/>
       <c r="P10" s="39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="39"/>
       <c r="R10" s="39"/>
@@ -3351,13 +3359,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -3374,19 +3382,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>101</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>3</v>
@@ -3412,7 +3420,7 @@
         <v>69</v>
       </c>
       <c r="D2" s="49">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20" t="s">
@@ -3432,11 +3440,11 @@
         <v>47</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>40</v>
@@ -3447,42 +3455,42 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>103</v>
+      <c r="C4" s="45" t="s">
+        <v>228</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="47">
         <v>44647</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>40</v>
@@ -3490,22 +3498,22 @@
       <c r="G5" s="18">
         <v>44647</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>40</v>
@@ -3513,22 +3521,22 @@
       <c r="G6" s="18">
         <v>44647</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>40</v>
@@ -3541,17 +3549,17 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>40</v>
@@ -3562,19 +3570,19 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>40</v>
@@ -3585,19 +3593,19 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>40</v>
@@ -3605,22 +3613,22 @@
       <c r="G10" s="18">
         <v>44647</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>40</v>
@@ -3633,17 +3641,17 @@
     </row>
     <row r="12" spans="1:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>40</v>
@@ -3654,20 +3662,20 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
-        <v>35</v>
+    <row r="13" spans="1:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="49">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="33" t="s">
+        <v>133</v>
+      </c>
       <c r="F13" s="20" t="s">
         <v>40</v>
       </c>
@@ -3677,17 +3685,19 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>121</v>
+    <row r="14" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="D14" s="49">
+        <v>0.3</v>
+      </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
         <v>40</v>
@@ -3698,18 +3708,18 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" s="25"/>
-      <c r="E15" s="34"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
         <v>40</v>
       </c>
@@ -3719,18 +3729,18 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="20" t="s">
         <v>40</v>
       </c>
@@ -3742,13 +3752,13 @@
     </row>
     <row r="17" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="20"/>
@@ -3761,19 +3771,17 @@
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
-        <v>34</v>
+    <row r="18" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="49">
-        <v>0.15</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D18" s="25"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20" t="s">
         <v>40</v>
@@ -3781,44 +3789,46 @@
       <c r="G18" s="18">
         <v>44647</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>91</v>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="33" t="s">
-        <v>135</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D19" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="18">
         <v>44647</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D20" s="25"/>
-      <c r="E20" s="34"/>
+      <c r="E20" s="33" t="s">
+        <v>133</v>
+      </c>
       <c r="F20" s="20" t="s">
         <v>40</v>
       </c>
@@ -3828,36 +3838,36 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D21" s="25"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G21" s="18">
-        <v>45348</v>
+        <v>44647</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="20"/>
@@ -3870,19 +3880,17 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>64</v>
+    <row r="23" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="49">
-        <v>0.2</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D23" s="25"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20" t="s">
         <v>40</v>
@@ -3893,17 +3901,19 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>73</v>
+    <row r="24" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="D24" s="49">
+        <v>0.2</v>
+      </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
         <v>40</v>
@@ -3916,13 +3926,13 @@
     </row>
     <row r="25" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="20"/>
@@ -3937,13 +3947,13 @@
     </row>
     <row r="26" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="20"/>
@@ -3958,13 +3968,13 @@
     </row>
     <row r="27" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="20"/>
@@ -3977,59 +3987,59 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
-        <v>224</v>
+    <row r="28" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="49">
-        <v>0.15</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D28" s="25"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G28" s="18">
-        <v>44647</v>
+        <v>45348</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>129</v>
+      <c r="A29" s="35" t="s">
+        <v>222</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="25"/>
+        <v>66</v>
+      </c>
+      <c r="D29" s="49">
+        <v>0.15</v>
+      </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="18">
-        <v>45348</v>
+        <v>44647</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="20"/>
@@ -4044,13 +4054,13 @@
     </row>
     <row r="31" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="20"/>
@@ -4065,13 +4075,13 @@
     </row>
     <row r="32" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="20"/>
@@ -4085,39 +4095,39 @@
       <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
-        <v>58</v>
+      <c r="A33" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="49">
-        <v>0.2</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D33" s="25"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="18">
-        <v>44647</v>
+        <v>45348</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>100</v>
+    <row r="34" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="D34" s="49">
+        <v>0.2</v>
+      </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20" t="s">
         <v>40</v>
@@ -4125,18 +4135,18 @@
       <c r="G34" s="18">
         <v>44647</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="20"/>
@@ -4144,20 +4154,20 @@
         <v>40</v>
       </c>
       <c r="G35" s="18">
-        <v>45348</v>
-      </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+        <v>44647</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="20"/>
@@ -4172,13 +4182,13 @@
     </row>
     <row r="37" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="20"/>
@@ -4191,16 +4201,26 @@
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="17"/>
+    <row r="38" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="D38" s="25"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="F38" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="18">
+        <v>45348</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
@@ -4279,7 +4299,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="20"/>
       <c r="C46" s="17"/>
@@ -4301,7 +4321,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="20"/>
       <c r="C48" s="17"/>
@@ -4312,7 +4332,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="20"/>
       <c r="C49" s="17"/>
@@ -4330,7 +4350,7 @@
       <c r="D50" s="25"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="9"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
@@ -4389,6 +4409,17 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1">
@@ -4398,16 +4429,17 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{CD234542-1809-477E-B403-59F836AC9923}"/>
-    <hyperlink ref="E4:E12" r:id="rId2" display="link" xr:uid="{2308FD21-EB03-4C76-A902-08C9873C3404}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{712EBE52-826A-477C-A03E-64645EE072F0}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{99AEE4F1-5E5C-4934-BF9E-26D46607D719}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{131101BC-1B58-46C4-81E1-821879F7345E}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{8A0F88CC-3CC0-49A9-A15B-8329FFFD096F}"/>
-    <hyperlink ref="E19" r:id="rId7" xr:uid="{45AEC113-F141-4C0E-A038-404B0E7A1F27}"/>
+    <hyperlink ref="E5:E13" r:id="rId2" display="link" xr:uid="{2308FD21-EB03-4C76-A902-08C9873C3404}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{712EBE52-826A-477C-A03E-64645EE072F0}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{99AEE4F1-5E5C-4934-BF9E-26D46607D719}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{131101BC-1B58-46C4-81E1-821879F7345E}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{8A0F88CC-3CC0-49A9-A15B-8329FFFD096F}"/>
+    <hyperlink ref="E20" r:id="rId7" xr:uid="{45AEC113-F141-4C0E-A038-404B0E7A1F27}"/>
+    <hyperlink ref="E4" r:id="rId8" xr:uid="{83165302-8AD2-4E08-9C39-943EC1C7EB07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -4439,87 +4471,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="61"/>
+      <c r="A1" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66"/>
       <c r="O1" s="43"/>
-      <c r="P1" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="61"/>
+      <c r="P1" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="66"/>
     </row>
     <row r="2" spans="1:19" ht="15.45" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="D2" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="E2" s="41" t="s">
         <v>140</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>142</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="J2" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="L2" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="M2" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="O2" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="P2" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="Q2" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="R2" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="S2" s="36" t="s">
         <v>153</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -4530,49 +4562,49 @@
         <v>14</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D3" s="39">
         <v>59</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H3" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>161</v>
-      </c>
       <c r="K3" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M3" s="47"/>
       <c r="N3" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" s="39" t="s">
         <v>160</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>162</v>
       </c>
       <c r="P3" s="39">
         <v>22</v>
       </c>
       <c r="Q3" s="39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="R3" s="39"/>
       <c r="S3" s="39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -4583,7 +4615,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D4" s="39">
         <v>80</v>
@@ -4593,25 +4625,25 @@
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M4" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N4" s="48"/>
       <c r="O4" s="39"/>
@@ -4628,35 +4660,35 @@
         <v>14</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" s="39">
         <v>65</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H5" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>161</v>
-      </c>
       <c r="L5" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M5" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N5" s="48"/>
       <c r="O5" s="39"/>
@@ -4673,35 +4705,35 @@
         <v>14</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="39">
         <v>55</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N6" s="48"/>
       <c r="O6" s="39"/>
@@ -4718,7 +4750,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="39">
         <v>80</v>
@@ -4728,25 +4760,25 @@
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N7" s="39"/>
       <c r="O7" s="39"/>
@@ -4763,7 +4795,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="39">
         <v>75</v>
@@ -4773,25 +4805,25 @@
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I8" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="M8" s="47" t="s">
         <v>159</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="L8" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>161</v>
       </c>
       <c r="N8" s="39"/>
       <c r="O8" s="39"/>
@@ -4808,7 +4840,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D9" s="39">
         <v>90</v>
@@ -4818,25 +4850,25 @@
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
@@ -4853,7 +4885,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="39">
         <v>80</v>
@@ -4863,35 +4895,35 @@
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="45" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L10" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M10" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N10" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O10" s="39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P10" s="39"/>
       <c r="Q10" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
@@ -4904,39 +4936,39 @@
         <v>14</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11" s="39">
         <v>65</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H11" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="47" t="s">
         <v>159</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="L11" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="M11" s="47" t="s">
-        <v>161</v>
       </c>
       <c r="N11" s="39"/>
       <c r="O11" s="39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -4951,39 +4983,39 @@
         <v>14</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" s="39">
         <v>70</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J12" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="M12" s="47" t="s">
         <v>159</v>
-      </c>
-      <c r="K12" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="M12" s="47" t="s">
-        <v>161</v>
       </c>
       <c r="N12" s="39"/>
       <c r="O12" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -4998,39 +5030,39 @@
         <v>14</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" s="39">
         <v>60</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H13" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="M13" s="47" t="s">
         <v>159</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="J13" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="K13" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="L13" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="M13" s="47" t="s">
-        <v>161</v>
       </c>
       <c r="N13" s="39"/>
       <c r="O13" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
@@ -5045,35 +5077,35 @@
         <v>14</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="39">
         <v>60</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H14" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="I14" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="J14" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="K14" s="47" t="s">
+      <c r="M14" s="47" t="s">
         <v>159</v>
-      </c>
-      <c r="L14" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="M14" s="47" t="s">
-        <v>161</v>
       </c>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
@@ -5090,35 +5122,35 @@
         <v>14</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D15" s="39">
         <v>50</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J15" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L15" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M15" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N15" s="39"/>
       <c r="O15" s="39"/>
@@ -5135,35 +5167,35 @@
         <v>14</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="39">
         <v>65</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="38"/>
       <c r="H16" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J16" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="39" t="s">
         <v>159</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="L16" s="39" t="s">
-        <v>161</v>
       </c>
       <c r="M16" s="39"/>
       <c r="N16" s="39"/>
       <c r="O16" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P16" s="38"/>
       <c r="Q16" s="39"/>
@@ -5178,33 +5210,33 @@
         <v>14</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" s="39">
         <v>50</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="38"/>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M17" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N17" s="40"/>
       <c r="O17" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P17" s="38"/>
       <c r="Q17" s="39"/>
@@ -5219,7 +5251,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" s="39">
         <v>75</v>
@@ -5229,29 +5261,29 @@
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H18" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="L18" s="39" t="s">
-        <v>161</v>
-      </c>
       <c r="M18" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N18" s="40"/>
       <c r="O18" s="39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P18" s="38"/>
       <c r="Q18" s="39"/>
@@ -5266,39 +5298,39 @@
         <v>14</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" s="39">
         <v>70</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H19" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>161</v>
-      </c>
       <c r="M19" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N19" s="40"/>
       <c r="O19" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P19" s="38"/>
       <c r="Q19" s="39"/>
@@ -5313,7 +5345,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D20" s="39">
         <v>85</v>
@@ -5323,29 +5355,29 @@
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H20" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" s="39" t="s">
         <v>159</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="L20" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>161</v>
       </c>
       <c r="N20" s="40"/>
       <c r="O20" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P20" s="38"/>
       <c r="Q20" s="39"/>
@@ -5360,7 +5392,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D21" s="39">
         <v>90</v>
@@ -5370,29 +5402,29 @@
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L21" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M21" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N21" s="40"/>
       <c r="O21" s="39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P21" s="38"/>
       <c r="Q21" s="39"/>
@@ -5407,7 +5439,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D22" s="39">
         <v>90</v>
@@ -5417,29 +5449,29 @@
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L22" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M22" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N22" s="40"/>
       <c r="O22" s="39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P22" s="38"/>
       <c r="Q22" s="39"/>
@@ -5454,39 +5486,39 @@
         <v>14</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D23" s="39">
         <v>55</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H23" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="K23" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="J23" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="K23" s="39" t="s">
-        <v>161</v>
-      </c>
       <c r="L23" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M23" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N23" s="40"/>
       <c r="O23" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
@@ -5501,39 +5533,39 @@
         <v>14</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D24" s="39">
         <v>70</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K24" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="M24" s="39" t="s">
         <v>159</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>161</v>
       </c>
       <c r="N24" s="40"/>
       <c r="O24" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P24" s="38"/>
       <c r="Q24" s="39"/>
@@ -5548,7 +5580,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D25" s="39">
         <v>75</v>
@@ -5558,29 +5590,29 @@
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L25" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M25" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N25" s="40"/>
       <c r="O25" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P25" s="38"/>
       <c r="Q25" s="39"/>
@@ -5595,37 +5627,37 @@
         <v>14</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D26" s="39">
         <v>50</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J26" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K26" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M26" s="39"/>
       <c r="N26" s="40"/>
       <c r="O26" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P26" s="38"/>
       <c r="Q26" s="39"/>
@@ -5640,37 +5672,37 @@
         <v>14</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D27" s="39">
         <v>60</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I27" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="L27" s="39" t="s">
         <v>159</v>
-      </c>
-      <c r="J27" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="K27" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="L27" s="39" t="s">
-        <v>161</v>
       </c>
       <c r="M27" s="39"/>
       <c r="N27" s="40"/>
       <c r="O27" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P27" s="38"/>
       <c r="Q27" s="39"/>
@@ -5685,7 +5717,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D28" s="39">
         <v>80</v>
@@ -5695,29 +5727,29 @@
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I28" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="M28" s="39" t="s">
         <v>159</v>
-      </c>
-      <c r="J28" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="K28" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="L28" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="M28" s="39" t="s">
-        <v>161</v>
       </c>
       <c r="N28" s="40"/>
       <c r="O28" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P28" s="38"/>
       <c r="Q28" s="39"/>
@@ -5732,39 +5764,39 @@
         <v>14</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D29" s="39">
         <v>70</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H29" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="M29" s="39" t="s">
         <v>159</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="J29" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="K29" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="L29" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="M29" s="39" t="s">
-        <v>161</v>
       </c>
       <c r="N29" s="40"/>
       <c r="O29" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P29" s="38"/>
       <c r="Q29" s="39"/>
@@ -5779,39 +5811,39 @@
         <v>14</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D30" s="39">
         <v>70</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J30" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K30" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="M30" s="39" t="s">
         <v>159</v>
-      </c>
-      <c r="K30" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="L30" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="M30" s="39" t="s">
-        <v>161</v>
       </c>
       <c r="N30" s="40"/>
       <c r="O30" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P30" s="38"/>
       <c r="Q30" s="39"/>
@@ -5826,39 +5858,39 @@
         <v>14</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D31" s="39">
         <v>70</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H31" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="K31" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="M31" s="39" t="s">
         <v>159</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="K31" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="L31" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="M31" s="39" t="s">
-        <v>161</v>
       </c>
       <c r="N31" s="40"/>
       <c r="O31" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P31" s="38"/>
       <c r="Q31" s="39"/>
@@ -5873,45 +5905,45 @@
         <v>14</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D32" s="39">
         <v>60</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J32" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K32" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L32" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M32" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N32" s="40"/>
       <c r="O32" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P32" s="38"/>
       <c r="Q32" s="39"/>
       <c r="R32" s="39"/>
       <c r="S32" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5922,7 +5954,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D33" s="39">
         <v>80</v>
@@ -5932,27 +5964,27 @@
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K33" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L33" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M33" s="39"/>
       <c r="N33" s="40"/>
       <c r="O33" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P33" s="38"/>
       <c r="Q33" s="39"/>
@@ -5967,7 +5999,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D34" s="39">
         <v>78</v>
@@ -5977,27 +6009,27 @@
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J34" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K34" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L34" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M34" s="39"/>
       <c r="N34" s="40"/>
       <c r="O34" s="39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P34" s="38"/>
       <c r="Q34" s="39"/>
@@ -6012,39 +6044,39 @@
         <v>14</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D35" s="39">
         <v>65</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H35" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="J35" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="I35" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="J35" s="39" t="s">
-        <v>161</v>
-      </c>
       <c r="K35" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L35" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M35" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N35" s="40"/>
       <c r="O35" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P35" s="38"/>
       <c r="Q35" s="39"/>
@@ -6059,39 +6091,39 @@
         <v>14</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D36" s="39">
         <v>65</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I36" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="L36" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="J36" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="K36" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="L36" s="39" t="s">
-        <v>161</v>
-      </c>
       <c r="M36" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N36" s="40"/>
       <c r="O36" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P36" s="38"/>
       <c r="Q36" s="39"/>
@@ -6106,41 +6138,41 @@
         <v>14</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D37" s="39">
         <v>68</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F37" s="39">
         <v>3</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J37" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K37" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L37" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M37" s="39"/>
       <c r="N37" s="39">
         <v>3</v>
       </c>
       <c r="O37" s="39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P37" s="38"/>
       <c r="Q37" s="39"/>
@@ -6154,6 +6186,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Management/template/招聘模板-Java技术.xlsx
+++ b/docs/Management/template/招聘模板-Java技术.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E089DF-7565-4BA3-A95A-1DCC50214850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6445FA2C-88D3-4497-9417-C96FF43C04A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="版本更新" sheetId="6" r:id="rId1"/>
@@ -461,10 +461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对常见设计模式的理解及在实际开发中的应用能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对Spring框架的理解和应用能力，包括依赖注入、AOP、事务管理等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -882,15 +878,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>线程池，线程同步，线程间通信，状态，线程安全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JVM内存结构，垃圾回收，类加载机制，JMM，JVM参数和调优</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据结构，IO，异常处理，API使用，算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM内存结构，垃圾回收，类加载机制，JVM参数和调优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程池，线程同步，JMM，线程间通信，状态，线程安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对常见设计模式的理解及在实际项目中的应用能力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1764,7 +1764,7 @@
         <v>84</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="30"/>
@@ -1892,7 +1892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1932,7 +1932,7 @@
       <c r="G1" s="59"/>
       <c r="H1" s="61"/>
       <c r="I1" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
@@ -1964,7 +1964,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>6</v>
@@ -1988,7 +1988,7 @@
         <v>64</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>38</v>
@@ -2377,7 +2377,7 @@
       <c r="N9" s="39"/>
       <c r="O9" s="2"/>
       <c r="P9" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q9" s="39"/>
       <c r="R9" s="39"/>
@@ -2429,7 +2429,7 @@
       <c r="N10" s="39"/>
       <c r="O10" s="2"/>
       <c r="P10" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="39"/>
       <c r="R10" s="39"/>
@@ -3361,11 +3361,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -3382,19 +3382,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>101</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>3</v>
@@ -3440,11 +3440,11 @@
         <v>47</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>40</v>
@@ -3457,17 +3457,17 @@
     </row>
     <row r="4" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>40</v>
@@ -3486,11 +3486,11 @@
         <v>47</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>40</v>
@@ -3509,11 +3509,11 @@
         <v>47</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>40</v>
@@ -3532,11 +3532,11 @@
         <v>47</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>40</v>
@@ -3555,11 +3555,11 @@
         <v>47</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>40</v>
@@ -3578,11 +3578,11 @@
         <v>47</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>40</v>
@@ -3601,11 +3601,11 @@
         <v>47</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>40</v>
@@ -3624,11 +3624,11 @@
         <v>47</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>40</v>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>40</v>
@@ -3670,11 +3670,11 @@
         <v>47</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>40</v>
@@ -3710,13 +3710,13 @@
     </row>
     <row r="15" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="20"/>
@@ -3731,13 +3731,13 @@
     </row>
     <row r="16" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="34"/>
@@ -3752,13 +3752,13 @@
     </row>
     <row r="17" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="20"/>
@@ -3773,13 +3773,13 @@
     </row>
     <row r="18" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="20"/>
@@ -3823,11 +3823,11 @@
         <v>47</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>40</v>
@@ -3846,7 +3846,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="34"/>
@@ -3867,7 +3867,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="20"/>
@@ -3888,7 +3888,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="20"/>
@@ -3932,7 +3932,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="20"/>
@@ -3953,7 +3953,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="20"/>
@@ -3974,7 +3974,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="20"/>
@@ -3995,7 +3995,7 @@
         <v>47</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="20"/>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="29" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>46</v>
@@ -4033,13 +4033,13 @@
     </row>
     <row r="30" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="20"/>
@@ -4054,13 +4054,13 @@
     </row>
     <row r="31" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="20"/>
@@ -4081,7 +4081,7 @@
         <v>47</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="20"/>
@@ -4096,13 +4096,13 @@
     </row>
     <row r="33" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="20"/>
@@ -4146,7 +4146,7 @@
         <v>47</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="20"/>
@@ -4167,7 +4167,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="20"/>
@@ -4472,7 +4472,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.45" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -4489,7 +4489,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="43"/>
       <c r="P1" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q1" s="65"/>
       <c r="R1" s="65"/>
@@ -4497,61 +4497,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.45" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="D2" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="E2" s="41" t="s">
         <v>139</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>140</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="I2" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="J2" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="L2" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="P2" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="Q2" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="R2" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="S2" s="36" t="s">
         <v>152</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -4562,49 +4562,49 @@
         <v>14</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="39">
         <v>59</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I3" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="J3" s="47" t="s">
-        <v>159</v>
-      </c>
       <c r="K3" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M3" s="47"/>
       <c r="N3" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O3" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P3" s="39">
         <v>22</v>
       </c>
       <c r="Q3" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R3" s="39"/>
       <c r="S3" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -4615,7 +4615,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="39">
         <v>80</v>
@@ -4625,25 +4625,25 @@
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="47" t="s">
-        <v>165</v>
-      </c>
       <c r="I4" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M4" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N4" s="48"/>
       <c r="O4" s="39"/>
@@ -4660,35 +4660,35 @@
         <v>14</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="39">
         <v>65</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I5" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="L5" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" s="47" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>159</v>
       </c>
       <c r="N5" s="48"/>
       <c r="O5" s="39"/>
@@ -4705,35 +4705,35 @@
         <v>14</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="39">
         <v>55</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="L6" s="47" t="s">
-        <v>168</v>
-      </c>
       <c r="M6" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N6" s="48"/>
       <c r="O6" s="39"/>
@@ -4750,7 +4750,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="39">
         <v>80</v>
@@ -4760,25 +4760,25 @@
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N7" s="39"/>
       <c r="O7" s="39"/>
@@ -4795,7 +4795,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" s="39">
         <v>75</v>
@@ -4805,25 +4805,25 @@
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K8" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" s="47" t="s">
         <v>158</v>
-      </c>
-      <c r="L8" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>159</v>
       </c>
       <c r="N8" s="39"/>
       <c r="O8" s="39"/>
@@ -4840,7 +4840,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="39">
         <v>90</v>
@@ -4850,25 +4850,25 @@
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
@@ -4885,7 +4885,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="39">
         <v>80</v>
@@ -4895,35 +4895,35 @@
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="O10" s="39" t="s">
         <v>173</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="K10" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="M10" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>174</v>
       </c>
       <c r="P10" s="39"/>
       <c r="Q10" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
@@ -4936,39 +4936,39 @@
         <v>14</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" s="39">
         <v>65</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I11" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="M11" s="47" t="s">
         <v>158</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="M11" s="47" t="s">
-        <v>159</v>
       </c>
       <c r="N11" s="39"/>
       <c r="O11" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -4983,39 +4983,39 @@
         <v>14</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" s="39">
         <v>70</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H12" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="M12" s="47" t="s">
         <v>158</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="K12" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="M12" s="47" t="s">
-        <v>159</v>
       </c>
       <c r="N12" s="39"/>
       <c r="O12" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -5030,39 +5030,39 @@
         <v>14</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" s="39">
         <v>60</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I13" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="47" t="s">
         <v>158</v>
-      </c>
-      <c r="J13" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="L13" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="M13" s="47" t="s">
-        <v>159</v>
       </c>
       <c r="N13" s="39"/>
       <c r="O13" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
@@ -5077,35 +5077,35 @@
         <v>14</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="39">
         <v>60</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I14" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="J14" s="47" t="s">
+      <c r="M14" s="47" t="s">
         <v>158</v>
-      </c>
-      <c r="K14" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="L14" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="M14" s="47" t="s">
-        <v>159</v>
       </c>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
@@ -5122,35 +5122,35 @@
         <v>14</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" s="39">
         <v>50</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H15" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="I15" s="47" t="s">
-        <v>159</v>
-      </c>
       <c r="J15" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L15" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M15" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N15" s="39"/>
       <c r="O15" s="39"/>
@@ -5167,35 +5167,35 @@
         <v>14</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" s="39">
         <v>65</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="38"/>
       <c r="H16" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="39" t="s">
         <v>158</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="L16" s="39" t="s">
-        <v>159</v>
       </c>
       <c r="M16" s="39"/>
       <c r="N16" s="39"/>
       <c r="O16" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P16" s="38"/>
       <c r="Q16" s="39"/>
@@ -5210,33 +5210,33 @@
         <v>14</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="39">
         <v>50</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="38"/>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M17" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N17" s="40"/>
       <c r="O17" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P17" s="38"/>
       <c r="Q17" s="39"/>
@@ -5251,7 +5251,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="39">
         <v>75</v>
@@ -5261,29 +5261,29 @@
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K18" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="L18" s="39" t="s">
-        <v>159</v>
-      </c>
       <c r="M18" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N18" s="40"/>
       <c r="O18" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P18" s="38"/>
       <c r="Q18" s="39"/>
@@ -5298,39 +5298,39 @@
         <v>14</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="39">
         <v>70</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I19" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>159</v>
-      </c>
       <c r="M19" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N19" s="40"/>
       <c r="O19" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P19" s="38"/>
       <c r="Q19" s="39"/>
@@ -5345,7 +5345,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="39">
         <v>85</v>
@@ -5355,29 +5355,29 @@
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J20" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L20" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M20" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N20" s="40"/>
       <c r="O20" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P20" s="38"/>
       <c r="Q20" s="39"/>
@@ -5392,7 +5392,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D21" s="39">
         <v>90</v>
@@ -5402,29 +5402,29 @@
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L21" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M21" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N21" s="40"/>
       <c r="O21" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P21" s="38"/>
       <c r="Q21" s="39"/>
@@ -5439,7 +5439,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D22" s="39">
         <v>90</v>
@@ -5449,29 +5449,29 @@
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L22" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M22" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N22" s="40"/>
       <c r="O22" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P22" s="38"/>
       <c r="Q22" s="39"/>
@@ -5486,39 +5486,39 @@
         <v>14</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D23" s="39">
         <v>55</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K23" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L23" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M23" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N23" s="40"/>
       <c r="O23" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
@@ -5533,39 +5533,39 @@
         <v>14</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D24" s="39">
         <v>70</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H24" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="M24" s="39" t="s">
         <v>158</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="K24" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>159</v>
       </c>
       <c r="N24" s="40"/>
       <c r="O24" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P24" s="38"/>
       <c r="Q24" s="39"/>
@@ -5580,7 +5580,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D25" s="39">
         <v>75</v>
@@ -5590,29 +5590,29 @@
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L25" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M25" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N25" s="40"/>
       <c r="O25" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P25" s="38"/>
       <c r="Q25" s="39"/>
@@ -5627,37 +5627,37 @@
         <v>14</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D26" s="39">
         <v>50</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H26" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="K26" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="J26" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="K26" s="39" t="s">
-        <v>159</v>
-      </c>
       <c r="L26" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M26" s="39"/>
       <c r="N26" s="40"/>
       <c r="O26" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P26" s="38"/>
       <c r="Q26" s="39"/>
@@ -5672,37 +5672,37 @@
         <v>14</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D27" s="39">
         <v>60</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H27" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K27" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L27" s="39" t="s">
         <v>158</v>
-      </c>
-      <c r="I27" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="J27" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="K27" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="L27" s="39" t="s">
-        <v>159</v>
       </c>
       <c r="M27" s="39"/>
       <c r="N27" s="40"/>
       <c r="O27" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P27" s="38"/>
       <c r="Q27" s="39"/>
@@ -5717,7 +5717,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" s="39">
         <v>80</v>
@@ -5727,29 +5727,29 @@
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M28" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N28" s="40"/>
       <c r="O28" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P28" s="38"/>
       <c r="Q28" s="39"/>
@@ -5764,39 +5764,39 @@
         <v>14</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D29" s="39">
         <v>70</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J29" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="M29" s="39" t="s">
         <v>158</v>
-      </c>
-      <c r="K29" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="L29" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="M29" s="39" t="s">
-        <v>159</v>
       </c>
       <c r="N29" s="40"/>
       <c r="O29" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P29" s="38"/>
       <c r="Q29" s="39"/>
@@ -5811,39 +5811,39 @@
         <v>14</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D30" s="39">
         <v>70</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H30" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="M30" s="39" t="s">
         <v>158</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="J30" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="K30" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="L30" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="M30" s="39" t="s">
-        <v>159</v>
       </c>
       <c r="N30" s="40"/>
       <c r="O30" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P30" s="38"/>
       <c r="Q30" s="39"/>
@@ -5858,39 +5858,39 @@
         <v>14</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D31" s="39">
         <v>70</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I31" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K31" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="M31" s="39" t="s">
         <v>158</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="K31" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="L31" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="M31" s="39" t="s">
-        <v>159</v>
       </c>
       <c r="N31" s="40"/>
       <c r="O31" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P31" s="38"/>
       <c r="Q31" s="39"/>
@@ -5905,45 +5905,45 @@
         <v>14</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D32" s="39">
         <v>60</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H32" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J32" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="K32" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="J32" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="K32" s="39" t="s">
-        <v>159</v>
-      </c>
       <c r="L32" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M32" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N32" s="40"/>
       <c r="O32" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P32" s="38"/>
       <c r="Q32" s="39"/>
       <c r="R32" s="39"/>
       <c r="S32" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5954,7 +5954,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D33" s="39">
         <v>80</v>
@@ -5964,27 +5964,27 @@
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K33" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L33" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M33" s="39"/>
       <c r="N33" s="40"/>
       <c r="O33" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P33" s="38"/>
       <c r="Q33" s="39"/>
@@ -5999,7 +5999,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D34" s="39">
         <v>78</v>
@@ -6009,27 +6009,27 @@
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J34" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K34" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L34" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M34" s="39"/>
       <c r="N34" s="40"/>
       <c r="O34" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P34" s="38"/>
       <c r="Q34" s="39"/>
@@ -6044,39 +6044,39 @@
         <v>14</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D35" s="39">
         <v>65</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I35" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J35" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="J35" s="39" t="s">
-        <v>159</v>
-      </c>
       <c r="K35" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L35" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="L35" s="39" t="s">
-        <v>159</v>
-      </c>
       <c r="M35" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N35" s="40"/>
       <c r="O35" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P35" s="38"/>
       <c r="Q35" s="39"/>
@@ -6091,39 +6091,39 @@
         <v>14</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D36" s="39">
         <v>65</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H36" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K36" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L36" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="I36" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="J36" s="39" t="s">
+      <c r="M36" s="39" t="s">
         <v>158</v>
-      </c>
-      <c r="K36" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="L36" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="M36" s="39" t="s">
-        <v>159</v>
       </c>
       <c r="N36" s="40"/>
       <c r="O36" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P36" s="38"/>
       <c r="Q36" s="39"/>
@@ -6138,41 +6138,41 @@
         <v>14</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D37" s="39">
         <v>68</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F37" s="39">
         <v>3</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H37" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="I37" s="39" t="s">
-        <v>159</v>
-      </c>
       <c r="J37" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K37" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L37" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M37" s="39"/>
       <c r="N37" s="39">
         <v>3</v>
       </c>
       <c r="O37" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P37" s="38"/>
       <c r="Q37" s="39"/>

--- a/docs/Management/template/招聘模板-Java技术.xlsx
+++ b/docs/Management/template/招聘模板-Java技术.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6445FA2C-88D3-4497-9417-C96FF43C04A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B00BCEA-1B3D-410C-AF2E-77D205134628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="247">
   <si>
     <t>面试日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -882,15 +882,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JVM内存结构，垃圾回收，类加载机制，JVM参数和调优</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线程池，线程同步，JMM，线程间通信，状态，线程安全</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对常见设计模式的理解及在实际项目中的应用能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM内存结构，类加载，对象模型，垃圾回收，JVM调优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│├ 基本概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│├ 线程基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│├ 并发与锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行与并发，线程安全，JMM，缓存一致性协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程创建与启动，生命周期，守护线程，基本方法使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synchronized，volatile，Happens-Before，ThreadLocal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│├ 线程池JUC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程池使用，ConcurrentHashMap，CompletableFuture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│├ 实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i++，使线程有序，项目使用多线程的案例。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│├ 架构组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│├ 垃圾回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾回收器，回收算法，G1模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│├ JVM调优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM参数，调优工具，调优实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存结构，类加载流程与相关概念，对象模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3359,13 +3427,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -3463,7 +3531,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="33" t="s">
@@ -3478,15 +3546,15 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>228</v>
+        <v>230</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>246</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="33" t="s">
@@ -3495,21 +3563,21 @@
       <c r="F5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="47">
         <v>44647</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>52</v>
+        <v>242</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>243</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="33" t="s">
@@ -3518,21 +3586,21 @@
       <c r="F6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="47">
         <v>44647</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>102</v>
+        <v>230</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>245</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="33" t="s">
@@ -3541,21 +3609,21 @@
       <c r="F7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="47">
         <v>44647</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="33" t="s">
@@ -3570,15 +3638,15 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>104</v>
+        <v>230</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>234</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="33" t="s">
@@ -3587,21 +3655,21 @@
       <c r="F9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="47">
         <v>44647</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>56</v>
+        <v>232</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>105</v>
+        <v>230</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>235</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="33" t="s">
@@ -3610,21 +3678,21 @@
       <c r="F10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="47">
         <v>44647</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>106</v>
+        <v>230</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>236</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="33" t="s">
@@ -3633,21 +3701,21 @@
       <c r="F11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="47">
         <v>44647</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>95</v>
+        <v>230</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>238</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="33" t="s">
@@ -3656,21 +3724,21 @@
       <c r="F12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="47">
         <v>44647</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>107</v>
+        <v>230</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>240</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="33" t="s">
@@ -3679,26 +3747,26 @@
       <c r="F13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="47">
         <v>44647</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>35</v>
+    <row r="14" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="49">
-        <v>0.3</v>
-      </c>
-      <c r="E14" s="20"/>
+        <v>228</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="33" t="s">
+        <v>132</v>
+      </c>
       <c r="F14" s="20" t="s">
         <v>40</v>
       </c>
@@ -3708,122 +3776,130 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D15" s="25"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="33" t="s">
+        <v>132</v>
+      </c>
       <c r="F15" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="18">
         <v>44647</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="34"/>
+      <c r="E16" s="33" t="s">
+        <v>132</v>
+      </c>
       <c r="F16" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="18">
         <v>44647</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D17" s="25"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="33" t="s">
+        <v>132</v>
+      </c>
       <c r="F17" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="18">
         <v>44647</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D18" s="25"/>
-      <c r="E18" s="20"/>
+      <c r="E18" s="33" t="s">
+        <v>132</v>
+      </c>
       <c r="F18" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="18">
         <v>44647</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
-        <v>34</v>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="49">
-        <v>0.15</v>
-      </c>
-      <c r="E19" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="33" t="s">
+        <v>132</v>
+      </c>
       <c r="F19" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="18">
         <v>44647</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="33" t="s">
@@ -3838,18 +3914,20 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="25"/>
-      <c r="E21" s="34"/>
+      <c r="E21" s="33" t="s">
+        <v>132</v>
+      </c>
       <c r="F21" s="20" t="s">
         <v>40</v>
       </c>
@@ -3859,36 +3937,38 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>93</v>
+    <row r="22" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="D22" s="49">
+        <v>0.3</v>
+      </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="18">
-        <v>45348</v>
+        <v>44647</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="20"/>
@@ -3896,43 +3976,41 @@
         <v>40</v>
       </c>
       <c r="G23" s="18">
-        <v>45348</v>
+        <v>44647</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>64</v>
+    <row r="24" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="49">
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G24" s="18">
-        <v>45348</v>
+        <v>44647</v>
       </c>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="20"/>
@@ -3940,20 +4018,20 @@
         <v>40</v>
       </c>
       <c r="G25" s="18">
-        <v>45348</v>
+        <v>44647</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="20"/>
@@ -3961,67 +4039,69 @@
         <v>40</v>
       </c>
       <c r="G26" s="18">
-        <v>45348</v>
+        <v>44647</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
-        <v>75</v>
+    <row r="27" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="25"/>
+        <v>68</v>
+      </c>
+      <c r="D27" s="49">
+        <v>0.15</v>
+      </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G27" s="18">
-        <v>45348</v>
-      </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+        <v>44647</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D28" s="25"/>
-      <c r="E28" s="20"/>
+      <c r="E28" s="33" t="s">
+        <v>132</v>
+      </c>
       <c r="F28" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G28" s="18">
-        <v>45348</v>
+        <v>44647</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
-        <v>221</v>
+    <row r="29" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="49">
-        <v>0.15</v>
-      </c>
-      <c r="E29" s="20"/>
+        <v>109</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="20" t="s">
         <v>40</v>
       </c>
@@ -4031,15 +4111,15 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="20"/>
@@ -4052,15 +4132,15 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="20"/>
@@ -4074,16 +4154,18 @@
       <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>65</v>
+      <c r="A32" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="D32" s="49">
+        <v>0.2</v>
+      </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20" t="s">
         <v>40</v>
@@ -4094,15 +4176,15 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="20"/>
@@ -4115,38 +4197,36 @@
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
-        <v>58</v>
+    <row r="34" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="49">
-        <v>0.2</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D34" s="25"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G34" s="18">
-        <v>44647</v>
+        <v>45348</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="20"/>
@@ -4154,20 +4234,20 @@
         <v>40</v>
       </c>
       <c r="G35" s="18">
-        <v>44647</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+        <v>45348</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="20"/>
@@ -4180,36 +4260,38 @@
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
-        <v>96</v>
+    <row r="37" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
+        <v>221</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="25"/>
+        <v>66</v>
+      </c>
+      <c r="D37" s="49">
+        <v>0.15</v>
+      </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G37" s="18">
-        <v>45348</v>
+        <v>44647</v>
       </c>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="20"/>
@@ -4222,95 +4304,177 @@
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="17"/>
+    <row r="39" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="D39" s="25"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="17"/>
+      <c r="F39" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="18">
+        <v>45348</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="D40" s="25"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="17"/>
+      <c r="F40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="18">
+        <v>45348</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="D41" s="25"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="25"/>
+      <c r="F41" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="18">
+        <v>45348</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+    </row>
+    <row r="42" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="49">
+        <v>0.2</v>
+      </c>
       <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="F42" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="18">
+        <v>44647</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="17"/>
+      <c r="A43" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>224</v>
+      </c>
       <c r="D43" s="25"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="7"/>
+      <c r="F43" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="18">
+        <v>44647</v>
+      </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="17"/>
+    <row r="44" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="D44" s="25"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="17"/>
+      <c r="F44" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="18">
+        <v>45348</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="D45" s="25"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="17"/>
+      <c r="F45" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="18">
+        <v>45348</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="D46" s="25"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="18">
+        <v>45348</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="20"/>
       <c r="C47" s="17"/>
@@ -4321,7 +4485,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="20"/>
       <c r="C48" s="17"/>
@@ -4332,7 +4496,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="20"/>
       <c r="C49" s="17"/>
@@ -4361,7 +4525,7 @@
       <c r="D51" s="25"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="9"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
@@ -4372,7 +4536,7 @@
       <c r="D52" s="25"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="9"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
@@ -4383,7 +4547,7 @@
       <c r="D53" s="25"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="9"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
@@ -4394,31 +4558,119 @@
       <c r="D54" s="25"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="9"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="20"/>
       <c r="C55" s="17"/>
       <c r="D55" s="25"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="9"/>
+      <c r="G55" s="7"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
       <c r="B56" s="20"/>
       <c r="C56" s="17"/>
       <c r="D56" s="25"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="9"/>
+      <c r="G56" s="7"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="21"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="21"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4429,17 +4681,25 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{CD234542-1809-477E-B403-59F836AC9923}"/>
-    <hyperlink ref="E5:E13" r:id="rId2" display="link" xr:uid="{2308FD21-EB03-4C76-A902-08C9873C3404}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{712EBE52-826A-477C-A03E-64645EE072F0}"/>
-    <hyperlink ref="E10" r:id="rId4" xr:uid="{99AEE4F1-5E5C-4934-BF9E-26D46607D719}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{131101BC-1B58-46C4-81E1-821879F7345E}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{8A0F88CC-3CC0-49A9-A15B-8329FFFD096F}"/>
-    <hyperlink ref="E20" r:id="rId7" xr:uid="{45AEC113-F141-4C0E-A038-404B0E7A1F27}"/>
+    <hyperlink ref="E8:E21" r:id="rId2" display="link" xr:uid="{2308FD21-EB03-4C76-A902-08C9873C3404}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{712EBE52-826A-477C-A03E-64645EE072F0}"/>
+    <hyperlink ref="E18" r:id="rId4" xr:uid="{99AEE4F1-5E5C-4934-BF9E-26D46607D719}"/>
+    <hyperlink ref="E16" r:id="rId5" xr:uid="{131101BC-1B58-46C4-81E1-821879F7345E}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{8A0F88CC-3CC0-49A9-A15B-8329FFFD096F}"/>
+    <hyperlink ref="E28" r:id="rId7" xr:uid="{45AEC113-F141-4C0E-A038-404B0E7A1F27}"/>
     <hyperlink ref="E4" r:id="rId8" xr:uid="{83165302-8AD2-4E08-9C39-943EC1C7EB07}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{34F8347B-E64B-4F07-AA65-8F53EB1AE329}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{2D84F674-004B-47A5-B7AA-3421BFB7547C}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{9969F0B2-6BAC-46E5-BB96-264B8437495E}"/>
+    <hyperlink ref="E10" r:id="rId12" xr:uid="{C8F1E4E3-DA0A-4021-BB65-7F64F4BDDB27}"/>
+    <hyperlink ref="E13" r:id="rId13" xr:uid="{67D37461-04DA-434D-8840-00D91AE50D5A}"/>
+    <hyperlink ref="E5" r:id="rId14" xr:uid="{67D66CE0-7894-40FC-AE61-469A63C17C4E}"/>
+    <hyperlink ref="E6" r:id="rId15" xr:uid="{C4A2FEEE-30BE-421C-9221-F8D11AF980F5}"/>
+    <hyperlink ref="E7" r:id="rId16" xr:uid="{E7250E37-2663-46E5-BF92-446C450061E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
-  <legacyDrawing r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/docs/Management/template/招聘模板-Java技术.xlsx
+++ b/docs/Management/template/招聘模板-Java技术.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B00BCEA-1B3D-410C-AF2E-77D205134628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078E453A-4EA9-4086-99EF-A24A6C6F5ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="249">
   <si>
     <t>面试日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -886,10 +886,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对常见设计模式的理解及在实际项目中的应用能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JVM内存结构，类加载，对象模型，垃圾回收，JVM调优</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -959,6 +955,18 @@
   </si>
   <si>
     <t>内存结构，类加载流程与相关概念，对象模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计原则，常见设计模式的理解及使用，可维护、可扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│├ 代理模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际应用，jdk动态代理和cglib动态代理的原理。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1964,7 +1972,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -3427,13 +3435,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -3531,7 +3539,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="33" t="s">
@@ -3548,13 +3556,13 @@
     </row>
     <row r="5" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="33" t="s">
@@ -3571,13 +3579,13 @@
     </row>
     <row r="6" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>242</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>243</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="33" t="s">
@@ -3594,13 +3602,13 @@
     </row>
     <row r="7" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>244</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>245</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="33" t="s">
@@ -3640,13 +3648,13 @@
     </row>
     <row r="9" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="33" t="s">
@@ -3663,13 +3671,13 @@
     </row>
     <row r="10" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="33" t="s">
@@ -3686,13 +3694,13 @@
     </row>
     <row r="11" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="33" t="s">
@@ -3709,13 +3717,13 @@
     </row>
     <row r="12" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>237</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>238</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="33" t="s">
@@ -3732,13 +3740,13 @@
     </row>
     <row r="13" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="45" t="s">
         <v>239</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>240</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="33" t="s">
@@ -3761,7 +3769,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="33" t="s">
@@ -3776,15 +3784,15 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>102</v>
+        <v>229</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>248</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="33" t="s">
@@ -3793,21 +3801,21 @@
       <c r="F15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="47">
         <v>44647</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="33" t="s">
@@ -3824,13 +3832,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="33" t="s">
@@ -3845,15 +3853,15 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="33" t="s">
@@ -3868,15 +3876,15 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="33" t="s">
@@ -3888,18 +3896,18 @@
       <c r="G19" s="18">
         <v>44647</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="33" t="s">
@@ -3916,13 +3924,13 @@
     </row>
     <row r="21" spans="1:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="33" t="s">
@@ -3937,20 +3945,20 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
-        <v>35</v>
+    <row r="22" spans="1:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="49">
-        <v>0.3</v>
-      </c>
-      <c r="E22" s="20"/>
+        <v>107</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="33" t="s">
+        <v>132</v>
+      </c>
       <c r="F22" s="20" t="s">
         <v>40</v>
       </c>
@@ -3960,17 +3968,19 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>118</v>
+    <row r="23" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="D23" s="49">
+        <v>0.3</v>
+      </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20" t="s">
         <v>40</v>
@@ -3981,18 +3991,18 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" s="25"/>
-      <c r="E24" s="34"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
         <v>40</v>
       </c>
@@ -4002,18 +4012,18 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D25" s="25"/>
-      <c r="E25" s="20"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="20" t="s">
         <v>40</v>
       </c>
@@ -4025,13 +4035,13 @@
     </row>
     <row r="26" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="20"/>
@@ -4044,19 +4054,17 @@
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
-        <v>34</v>
+    <row r="27" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>124</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="49">
-        <v>0.15</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D27" s="25"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20" t="s">
         <v>40</v>
@@ -4064,44 +4072,46 @@
       <c r="G27" s="18">
         <v>44647</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>91</v>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="33" t="s">
-        <v>132</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D28" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="E28" s="20"/>
       <c r="F28" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G28" s="18">
         <v>44647</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="25"/>
-      <c r="E29" s="34"/>
+      <c r="E29" s="33" t="s">
+        <v>132</v>
+      </c>
       <c r="F29" s="20" t="s">
         <v>40</v>
       </c>
@@ -4111,36 +4121,36 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D30" s="25"/>
-      <c r="E30" s="20"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="18">
-        <v>45348</v>
+        <v>44647</v>
       </c>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="20"/>
@@ -4153,19 +4163,17 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
-        <v>64</v>
+    <row r="32" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="49">
-        <v>0.2</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D32" s="25"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20" t="s">
         <v>40</v>
@@ -4176,17 +4184,19 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>73</v>
+    <row r="33" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="D33" s="49">
+        <v>0.2</v>
+      </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
         <v>40</v>
@@ -4199,13 +4209,13 @@
     </row>
     <row r="34" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="20"/>
@@ -4220,13 +4230,13 @@
     </row>
     <row r="35" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="20"/>
@@ -4241,13 +4251,13 @@
     </row>
     <row r="36" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="20"/>
@@ -4260,59 +4270,59 @@
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
-        <v>221</v>
+    <row r="37" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="49">
-        <v>0.15</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D37" s="25"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G37" s="18">
-        <v>44647</v>
+        <v>45348</v>
       </c>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>126</v>
+      <c r="A38" s="35" t="s">
+        <v>221</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="25"/>
+        <v>66</v>
+      </c>
+      <c r="D38" s="49">
+        <v>0.15</v>
+      </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="18">
-        <v>45348</v>
+        <v>44647</v>
       </c>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="20"/>
@@ -4327,13 +4337,13 @@
     </row>
     <row r="40" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="20"/>
@@ -4348,13 +4358,13 @@
     </row>
     <row r="41" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="20"/>
@@ -4368,39 +4378,39 @@
       <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35" t="s">
-        <v>58</v>
+      <c r="A42" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="49">
-        <v>0.2</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D42" s="25"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G42" s="18">
-        <v>44647</v>
+        <v>45348</v>
       </c>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
-        <v>100</v>
+    <row r="43" spans="1:9" s="19" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="D43" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="D43" s="49">
+        <v>0.2</v>
+      </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20" t="s">
         <v>40</v>
@@ -4408,18 +4418,18 @@
       <c r="G43" s="18">
         <v>44647</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="20"/>
@@ -4427,20 +4437,20 @@
         <v>40</v>
       </c>
       <c r="G44" s="18">
-        <v>45348</v>
-      </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+        <v>44647</v>
+      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="20"/>
@@ -4455,13 +4465,13 @@
     </row>
     <row r="46" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="20"/>
@@ -4474,16 +4484,26 @@
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="17"/>
+    <row r="47" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="D47" s="25"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="F47" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="18">
+        <v>45348</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
@@ -4562,7 +4582,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="20"/>
       <c r="C55" s="17"/>
@@ -4584,7 +4604,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
       <c r="B57" s="20"/>
       <c r="C57" s="17"/>
@@ -4595,7 +4615,7 @@
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
       <c r="B58" s="20"/>
       <c r="C58" s="17"/>
@@ -4613,7 +4633,7 @@
       <c r="D59" s="25"/>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="9"/>
+      <c r="G59" s="7"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
@@ -4672,6 +4692,17 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="21"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1">
@@ -4681,12 +4712,12 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{CD234542-1809-477E-B403-59F836AC9923}"/>
-    <hyperlink ref="E8:E21" r:id="rId2" display="link" xr:uid="{2308FD21-EB03-4C76-A902-08C9873C3404}"/>
+    <hyperlink ref="E8:E22" r:id="rId2" display="link" xr:uid="{2308FD21-EB03-4C76-A902-08C9873C3404}"/>
     <hyperlink ref="E8" r:id="rId3" xr:uid="{712EBE52-826A-477C-A03E-64645EE072F0}"/>
-    <hyperlink ref="E18" r:id="rId4" xr:uid="{99AEE4F1-5E5C-4934-BF9E-26D46607D719}"/>
-    <hyperlink ref="E16" r:id="rId5" xr:uid="{131101BC-1B58-46C4-81E1-821879F7345E}"/>
-    <hyperlink ref="E15" r:id="rId6" xr:uid="{8A0F88CC-3CC0-49A9-A15B-8329FFFD096F}"/>
-    <hyperlink ref="E28" r:id="rId7" xr:uid="{45AEC113-F141-4C0E-A038-404B0E7A1F27}"/>
+    <hyperlink ref="E19" r:id="rId4" xr:uid="{99AEE4F1-5E5C-4934-BF9E-26D46607D719}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{131101BC-1B58-46C4-81E1-821879F7345E}"/>
+    <hyperlink ref="E16" r:id="rId6" xr:uid="{8A0F88CC-3CC0-49A9-A15B-8329FFFD096F}"/>
+    <hyperlink ref="E29" r:id="rId7" xr:uid="{45AEC113-F141-4C0E-A038-404B0E7A1F27}"/>
     <hyperlink ref="E4" r:id="rId8" xr:uid="{83165302-8AD2-4E08-9C39-943EC1C7EB07}"/>
     <hyperlink ref="E9" r:id="rId9" xr:uid="{34F8347B-E64B-4F07-AA65-8F53EB1AE329}"/>
     <hyperlink ref="E12" r:id="rId10" xr:uid="{2D84F674-004B-47A5-B7AA-3421BFB7547C}"/>
@@ -4696,10 +4727,12 @@
     <hyperlink ref="E5" r:id="rId14" xr:uid="{67D66CE0-7894-40FC-AE61-469A63C17C4E}"/>
     <hyperlink ref="E6" r:id="rId15" xr:uid="{C4A2FEEE-30BE-421C-9221-F8D11AF980F5}"/>
     <hyperlink ref="E7" r:id="rId16" xr:uid="{E7250E37-2663-46E5-BF92-446C450061E8}"/>
+    <hyperlink ref="E14" r:id="rId17" xr:uid="{05C911B5-32CB-49E3-A450-635CB3E840BD}"/>
+    <hyperlink ref="E15" r:id="rId18" xr:uid="{2D416A94-6D16-41CA-AB39-F591CE0BAC9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
-  <legacyDrawing r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 
